--- a/medicine/Enfance/Margie_Orford/Margie_Orford.xlsx
+++ b/medicine/Enfance/Margie_Orford/Margie_Orford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Margie Orford, née le 30 septembre 1964 à Londres, est une journaliste, photographe et romancière sud-africaine d'origine anglaise. Elle écrit principalement des romans policiers et des textes de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'origine anglaise, elle grandit en Namibie et en Afrique du Sud. Elle devient journaliste, travaillant à l'international avant de s'installer au Cap. Elle débute dans la littérature policière en 2006 avec le roman Les Captives de l'aube (Like Clockwork), premier titre d’une série consacrée à Claire Hart, une journaliste et enquêtrice sud-africaine. Ses trois premières aventures ont été traduites en français au sein de la collection Payot suspense de l'éditeur Payot et Rivages.
 </t>
@@ -544,19 +558,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Claire Hart
-Like Clockwork (2006) Publié en français sous le titre Les Captives de l'aube, traduction de Karine Lalechère, Paris, Payot et Rivages, Payot suspense, 2008.
+          <t>Série Claire Hart</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Like Clockwork (2006) Publié en français sous le titre Les Captives de l'aube, traduction de Karine Lalechère, Paris, Payot et Rivages, Payot suspense, 2008.
 Blood Rose (2007) Publié en français sous le titre Roses de sang, traduction de Virginie Buhl, Paris, Payot et Rivages, Payot suspense, 2009.
 Daddy's Girl (2009) Publié en français sous le titre Daddy's girl, traduction de Virginie Buhl, Paris, Payot et Rivages, Payot suspense, 2010.
 Gallows Hill (2012)
-Water Music (2013)
-Albums illustrés
-Double Trouble: Junior African Writers (1996)
+Water Music (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Margie_Orford</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Margie_Orford</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Double Trouble: Junior African Writers (1996)
 Kazandu's Work: Stars of Africa (2003)
 The Little Red Hen (2010)
-The Magic Fish (2011)
-Autres publications
-Climate Change: Stories from the Developing World (2004)
+The Magic Fish (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Margie_Orford</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Margie_Orford</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Climate Change: Stories from the Developing World (2004)
 Rural Voice (2004)
 Fabulously 40 and Beyond (2006) (avec Karin Schimke)
 Fifteen Men: Images and Words from Behind Bars (2008)</t>
